--- a/Thoi-gian-roi.xlsx
+++ b/Thoi-gian-roi.xlsx
@@ -54,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,14 +92,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,135 +234,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -263,181 +256,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,16 +475,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,16 +505,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,21 +533,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,159 +548,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,7 +1034,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1071,7 +1064,9 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1080,7 +1075,9 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1089,7 +1086,9 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1098,7 +1097,9 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1107,7 +1108,9 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1116,7 +1119,9 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1125,7 +1130,9 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>

--- a/Thoi-gian-roi.xlsx
+++ b/Thoi-gian-roi.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="8475"/>
+    <workbookView windowWidth="15840" windowHeight="8475" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,18 +55,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -73,36 +73,24 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -113,6 +101,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,8 +109,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -129,84 +178,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,8 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +229,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -244,14 +253,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF385623"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
@@ -262,181 +271,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,17 +483,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +514,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,195 +571,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,11 +780,79 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00548235"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00385623"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1034,15 +1113,17 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="11.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="9.42857142857143" customWidth="1"/>
-    <col min="5" max="5" width="8.42857142857143" customWidth="1"/>
+    <col min="1" max="1" width="8.77142857142857"/>
+    <col min="2" max="2" width="11.3428571428571"/>
+    <col min="3" max="3" width="12.152380952381"/>
+    <col min="4" max="4" width="9.31428571428571"/>
+    <col min="5" max="5" width="8.23809523809524"/>
+    <col min="6" max="1025" width="8.77142857142857"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1068,8 +1149,12 @@
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -1079,8 +1164,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
@@ -1090,8 +1179,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -1101,8 +1194,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
@@ -1112,8 +1209,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
@@ -1123,8 +1224,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
@@ -1134,11 +1239,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Thoi-gian-roi.xlsx
+++ b/Thoi-gian-roi.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="8475" tabRatio="987"/>
+    <workbookView windowWidth="15840" windowHeight="8475" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Free time" sheetId="1" r:id="rId1"/>
+    <sheet name="User stories" sheetId="2" r:id="rId2"/>
+    <sheet name="Domain model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Mẫn Hoàng</t>
   </si>
@@ -48,6 +50,36 @@
   </si>
   <si>
     <t>Chủ nhật</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm: Thêm, xóa, sửa, xem tất cả và xem chi tiết từng sản phẩm, tìm kiếm sản phẩm.</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng:  đăng ký, đăng nhập, thay đổi thông tin</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng: Thêm, xóa, sửa sản phẩm vào giỏ hàng. Xem hóa đơn, thanh toán</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Người dùng</t>
+  </si>
+  <si>
+    <t>Giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đơn hàng</t>
+  </si>
+  <si>
+    <t>Chi tiết đơn hàng</t>
   </si>
 </sst>
 </file>
@@ -55,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -86,6 +118,28 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -101,106 +155,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +255,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,20 +275,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -265,31 +297,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,151 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,73 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,7 +534,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,142 +608,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -721,10 +753,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1112,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1142,113 +1177,423 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="83" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="75" customHeight="1" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>